--- a/biology/Botanique/Tillandsia_roland-gosselinii/Tillandsia_roland-gosselinii.xlsx
+++ b/biology/Botanique/Tillandsia_roland-gosselinii/Tillandsia_roland-gosselinii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia roland-gosselinii Mez est une plante épiphyte de la famille des Bromeliaceae.
-Le terme roland-gosselinii est une dédicace au botaniste Robert Roland-Gosselin (1854-1925), à qui Léon Diguet, collecteur de la plante, a envoyé celle-ci[1].
+Le terme roland-gosselinii est une dédicace au botaniste Robert Roland-Gosselin (1854-1925), à qui Léon Diguet, collecteur de la plante, a envoyé celle-ci.
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia roland-gosselinii Mez, in Repert. Spec. Nov. Regni Veg. 14: 249 (1916) (pro « Roland-Gosselini »)
-Diagnose originale[1] :
+Diagnose originale :
 « Foliis dense rosulatis, utrinque aequaliter lepidibus minutis et quam maxime appressis obtectis paullo canescentibus; inflorescentia submultiflora, compacte 2-pinnatim panniculata[sic] subfusiformi; bracteis primariis quam spicae flabellatae, manifeste stipitatae, ad 6-florae, densissime pinnatim axi insertae, vix complanatae multo brevioribus; bracteolis florigeris dense imbricatis, dorso glabris laevibusque, praesertim superioribus apicem versus satis uncinatim incurvis, apice acutis, sepala longe superantibus; floribus erectis; sepalis subaequaliter liberis, apice acutis; petalis ignotis. »
-Type : leg. Diguet ; « Mexico, prope Colima, alt. 400m » [1].
+Type : leg. Diguet ; « Mexico, prope Colima, alt. 400m » .
 </t>
         </is>
       </c>
@@ -548,10 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Synonymie nomenclaturale
-(aucune)
-Synonymie taxonomique
-Tillandsia maritima Matuda[2]</t>
+          <t>Synonymie nomenclaturale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(aucune)</t>
         </is>
       </c>
     </row>
@@ -576,10 +593,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymie taxonomique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tillandsia maritima Matuda</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +629,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et habitat</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Biotype : plante herbacée, en rosette acaule monocarpique, vivace par les rejets basaux ; épiphyte[2].
-Habitat : bois côtiers[2].
-Altitude : 400 m[1],[2].</t>
-        </is>
-      </c>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -634,14 +657,16 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Distribution</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Amérique centrale :
- Mexique[1]
-Centre-ouest du Mexique[2].</t>
+          <t>Écologie et habitat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Biotype : plante herbacée, en rosette acaule monocarpique, vivace par les rejets basaux ; épiphyte.
+Habitat : bois côtiers.
+Altitude : 400 m,.</t>
         </is>
       </c>
     </row>
@@ -666,10 +691,46 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Amérique centrale :
+ Mexique
+Centre-ouest du Mexique.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tillandsia_roland-gosselinii</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_roland-gosselinii</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Comportement en culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
